--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2677,28 +2677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>176.0858040215684</v>
+        <v>244.5039676875207</v>
       </c>
       <c r="AB2" t="n">
-        <v>240.9283654196106</v>
+        <v>334.5411153436727</v>
       </c>
       <c r="AC2" t="n">
-        <v>217.9345003691173</v>
+        <v>302.6129808267765</v>
       </c>
       <c r="AD2" t="n">
-        <v>176085.8040215684</v>
+        <v>244503.9676875207</v>
       </c>
       <c r="AE2" t="n">
-        <v>240928.3654196106</v>
+        <v>334541.1153436727</v>
       </c>
       <c r="AF2" t="n">
         <v>1.186230870529742e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.22916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>217934.5003691173</v>
+        <v>302612.9808267765</v>
       </c>
     </row>
     <row r="3">
@@ -2783,28 +2783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>131.8774500164374</v>
+        <v>180.7527365604741</v>
       </c>
       <c r="AB3" t="n">
-        <v>180.4405451348896</v>
+        <v>247.3138684098707</v>
       </c>
       <c r="AC3" t="n">
-        <v>163.219552757162</v>
+        <v>223.7105799160988</v>
       </c>
       <c r="AD3" t="n">
-        <v>131877.4500164374</v>
+        <v>180752.7365604741</v>
       </c>
       <c r="AE3" t="n">
-        <v>180440.5451348897</v>
+        <v>247313.8684098707</v>
       </c>
       <c r="AF3" t="n">
         <v>1.557548417020727e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.08101851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>163219.552757162</v>
+        <v>223710.5799160988</v>
       </c>
     </row>
     <row r="4">
@@ -2889,28 +2889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>118.917512683743</v>
+        <v>167.7586338089989</v>
       </c>
       <c r="AB4" t="n">
-        <v>162.7081871242232</v>
+        <v>229.5347637659564</v>
       </c>
       <c r="AC4" t="n">
-        <v>147.1795461075071</v>
+        <v>207.6282880662639</v>
       </c>
       <c r="AD4" t="n">
-        <v>118917.512683743</v>
+        <v>167758.6338089989</v>
       </c>
       <c r="AE4" t="n">
-        <v>162708.1871242232</v>
+        <v>229534.7637659564</v>
       </c>
       <c r="AF4" t="n">
         <v>1.675309047132761e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.363425925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>147179.5461075071</v>
+        <v>207628.2880662639</v>
       </c>
     </row>
     <row r="5">
@@ -2995,28 +2995,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>107.1843226542986</v>
+        <v>156.0927635872588</v>
       </c>
       <c r="AB5" t="n">
-        <v>146.6543188941339</v>
+        <v>213.5730054667086</v>
       </c>
       <c r="AC5" t="n">
-        <v>132.6578365295468</v>
+        <v>193.1898975766227</v>
       </c>
       <c r="AD5" t="n">
-        <v>107184.3226542986</v>
+        <v>156092.7635872588</v>
       </c>
       <c r="AE5" t="n">
-        <v>146654.3188941339</v>
+        <v>213573.0054667086</v>
       </c>
       <c r="AF5" t="n">
         <v>1.751899562894249e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.958333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>132657.8365295469</v>
+        <v>193189.8975766227</v>
       </c>
     </row>
     <row r="6">
@@ -3101,28 +3101,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>105.8799946911481</v>
+        <v>154.7884356241084</v>
       </c>
       <c r="AB6" t="n">
-        <v>144.8696798320638</v>
+        <v>211.7883664046385</v>
       </c>
       <c r="AC6" t="n">
-        <v>131.0435209148035</v>
+        <v>191.5755819618794</v>
       </c>
       <c r="AD6" t="n">
-        <v>105879.9946911481</v>
+        <v>154788.4356241084</v>
       </c>
       <c r="AE6" t="n">
-        <v>144869.6798320638</v>
+        <v>211788.3664046385</v>
       </c>
       <c r="AF6" t="n">
         <v>1.797965069629692e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.726851851851853</v>
       </c>
       <c r="AH6" t="n">
-        <v>131043.5209148035</v>
+        <v>191575.5819618794</v>
       </c>
     </row>
     <row r="7">
@@ -3207,28 +3207,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>105.0900820385244</v>
+        <v>153.9985229714847</v>
       </c>
       <c r="AB7" t="n">
-        <v>143.7888864922578</v>
+        <v>210.7075730648324</v>
       </c>
       <c r="AC7" t="n">
-        <v>130.0658769744452</v>
+        <v>190.5979380215211</v>
       </c>
       <c r="AD7" t="n">
-        <v>105090.0820385244</v>
+        <v>153998.5229714847</v>
       </c>
       <c r="AE7" t="n">
-        <v>143788.8864922578</v>
+        <v>210707.5730648325</v>
       </c>
       <c r="AF7" t="n">
         <v>1.815010798792615e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.645833333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>130065.8769744453</v>
+        <v>190597.9380215211</v>
       </c>
     </row>
     <row r="8">
@@ -3313,28 +3313,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>104.7708367038503</v>
+        <v>143.959087204024</v>
       </c>
       <c r="AB8" t="n">
-        <v>143.3520809412467</v>
+        <v>196.9711741391525</v>
       </c>
       <c r="AC8" t="n">
-        <v>129.6707595321621</v>
+        <v>178.1725217301467</v>
       </c>
       <c r="AD8" t="n">
-        <v>104770.8367038503</v>
+        <v>143959.087204024</v>
       </c>
       <c r="AE8" t="n">
-        <v>143352.0809412467</v>
+        <v>196971.1741391525</v>
       </c>
       <c r="AF8" t="n">
         <v>1.829913946246913e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.576388888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>129670.7595321621</v>
+        <v>178172.5217301467</v>
       </c>
     </row>
     <row r="9">
@@ -3419,28 +3419,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>104.8145118020245</v>
+        <v>144.0027623021981</v>
       </c>
       <c r="AB9" t="n">
-        <v>143.411839137378</v>
+        <v>197.0309323352837</v>
       </c>
       <c r="AC9" t="n">
-        <v>129.7248144899258</v>
+        <v>178.2265766879104</v>
       </c>
       <c r="AD9" t="n">
-        <v>104814.5118020245</v>
+        <v>144002.7623021981</v>
       </c>
       <c r="AE9" t="n">
-        <v>143411.839137378</v>
+        <v>197030.9323352837</v>
       </c>
       <c r="AF9" t="n">
         <v>1.828951140542404e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.576388888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>129724.8144899258</v>
+        <v>178226.5766879104</v>
       </c>
     </row>
   </sheetData>
@@ -3716,28 +3716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.9326836327691</v>
+        <v>203.015978533417</v>
       </c>
       <c r="AB2" t="n">
-        <v>198.3032917250039</v>
+        <v>277.7754182621526</v>
       </c>
       <c r="AC2" t="n">
-        <v>179.3775038832437</v>
+        <v>251.2649222035423</v>
       </c>
       <c r="AD2" t="n">
-        <v>144932.6836327691</v>
+        <v>203015.978533417</v>
       </c>
       <c r="AE2" t="n">
-        <v>198303.2917250039</v>
+        <v>277775.4182621526</v>
       </c>
       <c r="AF2" t="n">
         <v>1.482018370445024e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.58564814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>179377.5038832437</v>
+        <v>251264.9222035423</v>
       </c>
     </row>
     <row r="3">
@@ -3822,28 +3822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>116.2361481576079</v>
+        <v>164.5374086816626</v>
       </c>
       <c r="AB3" t="n">
-        <v>159.0394258861128</v>
+        <v>225.1273414363141</v>
       </c>
       <c r="AC3" t="n">
-        <v>143.8609262928221</v>
+        <v>203.6415039379052</v>
       </c>
       <c r="AD3" t="n">
-        <v>116236.1481576079</v>
+        <v>164537.4086816625</v>
       </c>
       <c r="AE3" t="n">
-        <v>159039.4258861128</v>
+        <v>225127.3414363141</v>
       </c>
       <c r="AF3" t="n">
         <v>1.83800784535734e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.340277777777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>143860.9262928221</v>
+        <v>203641.5039379052</v>
       </c>
     </row>
     <row r="4">
@@ -3928,28 +3928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>104.1311303011933</v>
+        <v>152.4997106329524</v>
       </c>
       <c r="AB4" t="n">
-        <v>142.4768064192771</v>
+        <v>208.65683190032</v>
       </c>
       <c r="AC4" t="n">
-        <v>128.8790199821135</v>
+        <v>188.7429167155157</v>
       </c>
       <c r="AD4" t="n">
-        <v>104131.1303011932</v>
+        <v>152499.7106329524</v>
       </c>
       <c r="AE4" t="n">
-        <v>142476.8064192771</v>
+        <v>208656.83190032</v>
       </c>
       <c r="AF4" t="n">
         <v>1.954989381711487e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.784722222222223</v>
       </c>
       <c r="AH4" t="n">
-        <v>128879.0199821135</v>
+        <v>188742.9167155157</v>
       </c>
     </row>
     <row r="5">
@@ -4034,28 +4034,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>102.71405768718</v>
+        <v>141.4704197063927</v>
       </c>
       <c r="AB5" t="n">
-        <v>140.5379051519536</v>
+        <v>193.5660694766339</v>
       </c>
       <c r="AC5" t="n">
-        <v>127.1251647304777</v>
+        <v>175.0923954775234</v>
       </c>
       <c r="AD5" t="n">
-        <v>102714.05768718</v>
+        <v>141470.4197063927</v>
       </c>
       <c r="AE5" t="n">
-        <v>140537.9051519536</v>
+        <v>193566.0694766339</v>
       </c>
       <c r="AF5" t="n">
         <v>2.01555744759145e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.518518518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>127125.1647304777</v>
+        <v>175092.3954775234</v>
       </c>
     </row>
     <row r="6">
@@ -4140,28 +4140,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>101.8779925667172</v>
+        <v>140.5328693594447</v>
       </c>
       <c r="AB6" t="n">
-        <v>139.3939639695471</v>
+        <v>192.2832717301381</v>
       </c>
       <c r="AC6" t="n">
-        <v>126.0903996889882</v>
+        <v>173.9320261475349</v>
       </c>
       <c r="AD6" t="n">
-        <v>101877.9925667172</v>
+        <v>140532.8693594447</v>
       </c>
       <c r="AE6" t="n">
-        <v>139393.9639695471</v>
+        <v>192283.2717301381</v>
       </c>
       <c r="AF6" t="n">
         <v>2.052963644084195e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.368055555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>126090.3996889882</v>
+        <v>173932.0261475349</v>
       </c>
     </row>
     <row r="7">
@@ -4246,28 +4246,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>101.9455947666441</v>
+        <v>140.6004715593716</v>
       </c>
       <c r="AB7" t="n">
-        <v>139.4864602818857</v>
+        <v>192.3757680424767</v>
       </c>
       <c r="AC7" t="n">
-        <v>126.1740682830966</v>
+        <v>174.0156947416433</v>
       </c>
       <c r="AD7" t="n">
-        <v>101945.5947666441</v>
+        <v>140600.4715593717</v>
       </c>
       <c r="AE7" t="n">
-        <v>139486.4602818857</v>
+        <v>192375.7680424767</v>
       </c>
       <c r="AF7" t="n">
         <v>2.052503671021413e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.368055555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>126174.0682830966</v>
+        <v>174015.6947416433</v>
       </c>
     </row>
   </sheetData>
@@ -4543,28 +4543,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.16387050912151</v>
+        <v>143.9071137889727</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.9438941979606</v>
+        <v>196.9000618197741</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.2559155236702</v>
+        <v>178.108196270723</v>
       </c>
       <c r="AD2" t="n">
-        <v>97163.87050912151</v>
+        <v>143907.1137889727</v>
       </c>
       <c r="AE2" t="n">
-        <v>132943.8941979606</v>
+        <v>196900.0618197741</v>
       </c>
       <c r="AF2" t="n">
         <v>2.718489682718018e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.819444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>120255.9155236701</v>
+        <v>178108.196270723</v>
       </c>
     </row>
     <row r="3">
@@ -4649,28 +4649,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.2806599320845</v>
+        <v>132.6352670832856</v>
       </c>
       <c r="AB3" t="n">
-        <v>130.3672024050728</v>
+        <v>181.4774238782803</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.9251395790851</v>
+        <v>164.1574732485523</v>
       </c>
       <c r="AD3" t="n">
-        <v>95280.6599320845</v>
+        <v>132635.2670832856</v>
       </c>
       <c r="AE3" t="n">
-        <v>130367.2024050729</v>
+        <v>181477.4238782804</v>
       </c>
       <c r="AF3" t="n">
         <v>2.908424842019315e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.240740740740742</v>
       </c>
       <c r="AH3" t="n">
-        <v>117925.1395790851</v>
+        <v>164157.4732485523</v>
       </c>
     </row>
   </sheetData>
@@ -4946,28 +4946,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.5556453492385</v>
+        <v>159.9684959916322</v>
       </c>
       <c r="AB2" t="n">
-        <v>154.0035995713801</v>
+        <v>218.8759535276158</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.3057121737392</v>
+        <v>197.986739717333</v>
       </c>
       <c r="AD2" t="n">
-        <v>112555.6453492385</v>
+        <v>159968.4959916322</v>
       </c>
       <c r="AE2" t="n">
-        <v>154003.5995713801</v>
+        <v>218875.9535276158</v>
       </c>
       <c r="AF2" t="n">
         <v>2.14549806543227e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.675925925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>139305.7121737392</v>
+        <v>197986.739717333</v>
       </c>
     </row>
     <row r="3">
@@ -5052,28 +5052,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.32420034471495</v>
+        <v>136.1871610509256</v>
       </c>
       <c r="AB3" t="n">
-        <v>134.5315086691584</v>
+        <v>186.3372819033055</v>
       </c>
       <c r="AC3" t="n">
-        <v>121.6920102979681</v>
+        <v>168.5535132445241</v>
       </c>
       <c r="AD3" t="n">
-        <v>98324.20034471495</v>
+        <v>136187.1610509256</v>
       </c>
       <c r="AE3" t="n">
-        <v>134531.5086691584</v>
+        <v>186337.2819033055</v>
       </c>
       <c r="AF3" t="n">
         <v>2.486786948919088e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.344907407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>121692.0102979681</v>
+        <v>168553.5132445241</v>
       </c>
     </row>
     <row r="4">
@@ -5158,28 +5158,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>97.61015024967436</v>
+        <v>135.473110955885</v>
       </c>
       <c r="AB4" t="n">
-        <v>133.5545138274574</v>
+        <v>185.3602870616045</v>
       </c>
       <c r="AC4" t="n">
-        <v>120.808258472738</v>
+        <v>167.6697614192939</v>
       </c>
       <c r="AD4" t="n">
-        <v>97610.15024967436</v>
+        <v>135473.110955885</v>
       </c>
       <c r="AE4" t="n">
-        <v>133554.5138274574</v>
+        <v>185360.2870616045</v>
       </c>
       <c r="AF4" t="n">
         <v>2.534907085258105e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.194444444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>120808.258472738</v>
+        <v>167669.7614192939</v>
       </c>
     </row>
   </sheetData>
@@ -5455,28 +5455,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.3552720117591</v>
+        <v>130.2929249687629</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.7328017103649</v>
+        <v>178.2725280603509</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.5421623892746</v>
+        <v>161.2584481893855</v>
       </c>
       <c r="AD2" t="n">
-        <v>93355.27201175909</v>
+        <v>130292.9249687629</v>
       </c>
       <c r="AE2" t="n">
-        <v>127732.8017103649</v>
+        <v>178272.5280603509</v>
       </c>
       <c r="AF2" t="n">
         <v>3.288102969312369e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.344907407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>115542.1623892746</v>
+        <v>161258.4481893855</v>
       </c>
     </row>
     <row r="3">
@@ -5561,28 +5561,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.41905449936054</v>
+        <v>130.3567074563643</v>
       </c>
       <c r="AB3" t="n">
-        <v>127.8200717237859</v>
+        <v>178.3597980737719</v>
       </c>
       <c r="AC3" t="n">
-        <v>115.6211034750989</v>
+        <v>161.3373892752099</v>
       </c>
       <c r="AD3" t="n">
-        <v>93419.05449936054</v>
+        <v>130356.7074563643</v>
       </c>
       <c r="AE3" t="n">
-        <v>127820.0717237859</v>
+        <v>178359.7980737719</v>
       </c>
       <c r="AF3" t="n">
         <v>3.287723434139596e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.356481481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>115621.1034750989</v>
+        <v>161337.3892752099</v>
       </c>
     </row>
   </sheetData>
@@ -5858,28 +5858,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.5736503068641</v>
+        <v>215.467820361089</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.9167788397257</v>
+        <v>294.8125775872561</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.6461248592986</v>
+        <v>266.6760789544667</v>
       </c>
       <c r="AD2" t="n">
-        <v>147573.6503068641</v>
+        <v>215467.820361089</v>
       </c>
       <c r="AE2" t="n">
-        <v>201916.7788397257</v>
+        <v>294812.5775872561</v>
       </c>
       <c r="AF2" t="n">
         <v>1.399086142583475e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.97916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>182646.1248592986</v>
+        <v>266676.0789544667</v>
       </c>
     </row>
     <row r="3">
@@ -5964,28 +5964,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.7040060815358</v>
+        <v>166.248649575669</v>
       </c>
       <c r="AB3" t="n">
-        <v>161.0478138549512</v>
+        <v>227.4687367221126</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.6776365327054</v>
+        <v>205.7594397437968</v>
       </c>
       <c r="AD3" t="n">
-        <v>117704.0060815358</v>
+        <v>166248.649575669</v>
       </c>
       <c r="AE3" t="n">
-        <v>161047.8138549512</v>
+        <v>227468.7367221126</v>
       </c>
       <c r="AF3" t="n">
         <v>1.758160690323499e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.537037037037038</v>
       </c>
       <c r="AH3" t="n">
-        <v>145677.6365327054</v>
+        <v>205759.4397437968</v>
       </c>
     </row>
     <row r="4">
@@ -6070,28 +6070,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>105.5004785898418</v>
+        <v>154.0109566651942</v>
       </c>
       <c r="AB4" t="n">
-        <v>144.3504091591881</v>
+        <v>210.7245853931017</v>
       </c>
       <c r="AC4" t="n">
-        <v>130.5738087061459</v>
+        <v>190.6133267170573</v>
       </c>
       <c r="AD4" t="n">
-        <v>105500.4785898418</v>
+        <v>154010.9566651942</v>
       </c>
       <c r="AE4" t="n">
-        <v>144350.4091591881</v>
+        <v>210724.5853931017</v>
       </c>
       <c r="AF4" t="n">
         <v>1.869376932961958e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.969907407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>130573.8087061459</v>
+        <v>190613.3267170573</v>
       </c>
     </row>
     <row r="5">
@@ -6176,28 +6176,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>103.9874008739659</v>
+        <v>152.4978789493183</v>
       </c>
       <c r="AB5" t="n">
-        <v>142.28014947605</v>
+        <v>208.6543257099636</v>
       </c>
       <c r="AC5" t="n">
-        <v>128.7011317015381</v>
+        <v>188.7406497124496</v>
       </c>
       <c r="AD5" t="n">
-        <v>103987.4008739659</v>
+        <v>152497.8789493183</v>
       </c>
       <c r="AE5" t="n">
-        <v>142280.14947605</v>
+        <v>208654.3257099636</v>
       </c>
       <c r="AF5" t="n">
         <v>1.934592133696708e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.657407407407408</v>
       </c>
       <c r="AH5" t="n">
-        <v>128701.1317015382</v>
+        <v>188740.6497124496</v>
       </c>
     </row>
     <row r="6">
@@ -6282,28 +6282,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>102.6512951403446</v>
+        <v>141.4196901279468</v>
       </c>
       <c r="AB6" t="n">
-        <v>140.4520306664854</v>
+        <v>193.4966590293731</v>
       </c>
       <c r="AC6" t="n">
-        <v>127.047485985377</v>
+        <v>175.029609465931</v>
       </c>
       <c r="AD6" t="n">
-        <v>102651.2951403446</v>
+        <v>141419.6901279468</v>
       </c>
       <c r="AE6" t="n">
-        <v>140452.0306664854</v>
+        <v>193496.6590293731</v>
       </c>
       <c r="AF6" t="n">
         <v>1.989005704824859e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.425925925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>127047.485985377</v>
+        <v>175029.609465931</v>
       </c>
     </row>
     <row r="7">
@@ -6388,28 +6388,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>102.6923321562319</v>
+        <v>141.4607271438341</v>
       </c>
       <c r="AB7" t="n">
-        <v>140.5081793220478</v>
+        <v>193.5528076849355</v>
       </c>
       <c r="AC7" t="n">
-        <v>127.0982758920576</v>
+        <v>175.0803993726116</v>
       </c>
       <c r="AD7" t="n">
-        <v>102692.3321562319</v>
+        <v>141460.7271438341</v>
       </c>
       <c r="AE7" t="n">
-        <v>140508.1793220478</v>
+        <v>193552.8076849355</v>
       </c>
       <c r="AF7" t="n">
         <v>1.985443773346007e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.4375</v>
       </c>
       <c r="AH7" t="n">
-        <v>127098.2758920576</v>
+        <v>175080.3993726116</v>
       </c>
     </row>
   </sheetData>
@@ -6685,28 +6685,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.32381898017501</v>
+        <v>129.1160578514693</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.321522168056</v>
+        <v>176.6622865507578</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.2655733857399</v>
+        <v>159.8018858694792</v>
       </c>
       <c r="AD2" t="n">
-        <v>92323.81898017501</v>
+        <v>129116.0578514693</v>
       </c>
       <c r="AE2" t="n">
-        <v>126321.522168056</v>
+        <v>176662.2865507578</v>
       </c>
       <c r="AF2" t="n">
         <v>3.528905190386259e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.518518518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>114265.5733857399</v>
+        <v>159801.8858694792</v>
       </c>
     </row>
   </sheetData>
@@ -6982,28 +6982,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.4631331255341</v>
+        <v>185.9596304083108</v>
       </c>
       <c r="AB2" t="n">
-        <v>175.7689261357277</v>
+        <v>254.4381702844216</v>
       </c>
       <c r="AC2" t="n">
-        <v>158.9937865186201</v>
+        <v>230.1549484187653</v>
       </c>
       <c r="AD2" t="n">
-        <v>128463.1331255341</v>
+        <v>185959.6304083108</v>
       </c>
       <c r="AE2" t="n">
-        <v>175768.9261357277</v>
+        <v>254438.1702844216</v>
       </c>
       <c r="AF2" t="n">
         <v>1.760618861189294e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.60185185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>158993.7865186202</v>
+        <v>230154.9484187653</v>
       </c>
     </row>
     <row r="3">
@@ -7088,28 +7088,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.5566109113283</v>
+        <v>150.4646644105121</v>
       </c>
       <c r="AB3" t="n">
-        <v>140.322479527172</v>
+        <v>205.8723918788756</v>
       </c>
       <c r="AC3" t="n">
-        <v>126.9302990249734</v>
+        <v>186.2242197417311</v>
       </c>
       <c r="AD3" t="n">
-        <v>102556.6109113283</v>
+        <v>150464.6644105121</v>
       </c>
       <c r="AE3" t="n">
-        <v>140322.479527172</v>
+        <v>205872.3918788756</v>
       </c>
       <c r="AF3" t="n">
         <v>2.105743655548923e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.865740740740742</v>
       </c>
       <c r="AH3" t="n">
-        <v>126930.2990249734</v>
+        <v>186224.2197417311</v>
       </c>
     </row>
     <row r="4">
@@ -7194,28 +7194,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>100.5376228830677</v>
+        <v>138.8240782097349</v>
       </c>
       <c r="AB4" t="n">
-        <v>137.5600110354417</v>
+        <v>189.9452282925614</v>
       </c>
       <c r="AC4" t="n">
-        <v>124.4314766489441</v>
+        <v>171.8171222941751</v>
       </c>
       <c r="AD4" t="n">
-        <v>100537.6228830677</v>
+        <v>138824.078209735</v>
       </c>
       <c r="AE4" t="n">
-        <v>137560.0110354417</v>
+        <v>189945.2282925614</v>
       </c>
       <c r="AF4" t="n">
         <v>2.218424295248219e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.414351851851851</v>
       </c>
       <c r="AH4" t="n">
-        <v>124431.4766489441</v>
+        <v>171817.1222941751</v>
       </c>
     </row>
     <row r="5">
@@ -7300,28 +7300,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>99.89088258680995</v>
+        <v>138.1773379134772</v>
       </c>
       <c r="AB5" t="n">
-        <v>136.6751124299342</v>
+        <v>189.0603296870538</v>
       </c>
       <c r="AC5" t="n">
-        <v>123.6310315243829</v>
+        <v>171.0166771696139</v>
       </c>
       <c r="AD5" t="n">
-        <v>99890.88258680995</v>
+        <v>138177.3379134772</v>
       </c>
       <c r="AE5" t="n">
-        <v>136675.1124299341</v>
+        <v>189060.3296870538</v>
       </c>
       <c r="AF5" t="n">
         <v>2.252580210804263e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.287037037037036</v>
       </c>
       <c r="AH5" t="n">
-        <v>123631.0315243829</v>
+        <v>171016.6771696139</v>
       </c>
     </row>
   </sheetData>
@@ -7597,28 +7597,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.8371891745957</v>
+        <v>200.6422465486893</v>
       </c>
       <c r="AB2" t="n">
-        <v>195.4361437606415</v>
+        <v>274.5275734389855</v>
       </c>
       <c r="AC2" t="n">
-        <v>176.7839924965317</v>
+        <v>248.3270471319185</v>
       </c>
       <c r="AD2" t="n">
-        <v>142837.1891745957</v>
+        <v>200642.2465486893</v>
       </c>
       <c r="AE2" t="n">
-        <v>195436.1437606415</v>
+        <v>274527.5734389856</v>
       </c>
       <c r="AF2" t="n">
         <v>1.559087574767496e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.30787037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>176783.9924965317</v>
+        <v>248327.0471319185</v>
       </c>
     </row>
     <row r="3">
@@ -7703,28 +7703,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>115.0163266622308</v>
+        <v>153.5875340070264</v>
       </c>
       <c r="AB3" t="n">
-        <v>157.3704123014124</v>
+        <v>210.1452398321075</v>
       </c>
       <c r="AC3" t="n">
-        <v>142.3512010221697</v>
+        <v>190.0892730832877</v>
       </c>
       <c r="AD3" t="n">
-        <v>115016.3266622308</v>
+        <v>153587.5340070264</v>
       </c>
       <c r="AE3" t="n">
-        <v>157370.4123014124</v>
+        <v>210145.2398321075</v>
       </c>
       <c r="AF3" t="n">
         <v>1.914886969241665e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.201388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>142351.2010221697</v>
+        <v>190089.2730832877</v>
       </c>
     </row>
     <row r="4">
@@ -7809,28 +7809,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>103.003382843283</v>
+        <v>151.2246695916513</v>
       </c>
       <c r="AB4" t="n">
-        <v>140.9337725946587</v>
+        <v>206.912264496772</v>
       </c>
       <c r="AC4" t="n">
-        <v>127.4832511400546</v>
+        <v>187.1648483764461</v>
       </c>
       <c r="AD4" t="n">
-        <v>103003.382843283</v>
+        <v>151224.6695916513</v>
       </c>
       <c r="AE4" t="n">
-        <v>140933.7725946587</v>
+        <v>206912.264496772</v>
       </c>
       <c r="AF4" t="n">
         <v>2.035532554270315e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.657407407407408</v>
       </c>
       <c r="AH4" t="n">
-        <v>127483.2511400546</v>
+        <v>187164.8483764461</v>
       </c>
     </row>
     <row r="5">
@@ -7915,28 +7915,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>101.3758315126597</v>
+        <v>139.9128734386746</v>
       </c>
       <c r="AB5" t="n">
-        <v>138.7068850616039</v>
+        <v>191.4349659590512</v>
       </c>
       <c r="AC5" t="n">
-        <v>125.4688946276975</v>
+        <v>173.1646814886356</v>
       </c>
       <c r="AD5" t="n">
-        <v>101375.8315126597</v>
+        <v>139912.8734386746</v>
       </c>
       <c r="AE5" t="n">
-        <v>138706.8850616039</v>
+        <v>191434.9659590512</v>
       </c>
       <c r="AF5" t="n">
         <v>2.108495568392036e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.356481481481481</v>
       </c>
       <c r="AH5" t="n">
-        <v>125468.8946276975</v>
+        <v>173164.6814886356</v>
       </c>
     </row>
     <row r="6">
@@ -8021,28 +8021,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>101.3297145225773</v>
+        <v>139.8667564485922</v>
       </c>
       <c r="AB6" t="n">
-        <v>138.6437857612351</v>
+        <v>191.3718666586824</v>
       </c>
       <c r="AC6" t="n">
-        <v>125.4118174359955</v>
+        <v>173.1076042969336</v>
       </c>
       <c r="AD6" t="n">
-        <v>101329.7145225773</v>
+        <v>139866.7564485921</v>
       </c>
       <c r="AE6" t="n">
-        <v>138643.785761235</v>
+        <v>191371.8666586824</v>
       </c>
       <c r="AF6" t="n">
         <v>2.10461212681386e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.37962962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>125411.8174359955</v>
+        <v>173107.6042969336</v>
       </c>
     </row>
   </sheetData>
@@ -8318,28 +8318,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.055432433657</v>
+        <v>231.3611118522736</v>
       </c>
       <c r="AB2" t="n">
-        <v>223.0996361536161</v>
+        <v>316.5584801680189</v>
       </c>
       <c r="AC2" t="n">
-        <v>201.8073200014851</v>
+        <v>286.3465831134944</v>
       </c>
       <c r="AD2" t="n">
-        <v>163055.432433657</v>
+        <v>231361.1118522736</v>
       </c>
       <c r="AE2" t="n">
-        <v>223099.6361536161</v>
+        <v>316558.480168019</v>
       </c>
       <c r="AF2" t="n">
         <v>1.252617523484711e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.78935185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>201807.3200014851</v>
+        <v>286346.5831134944</v>
       </c>
     </row>
     <row r="3">
@@ -8424,28 +8424,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.5659863785823</v>
+        <v>169.3801612624376</v>
       </c>
       <c r="AB3" t="n">
-        <v>164.9637015590279</v>
+        <v>231.7534091644926</v>
       </c>
       <c r="AC3" t="n">
-        <v>149.2197974102892</v>
+        <v>209.635189061853</v>
       </c>
       <c r="AD3" t="n">
-        <v>120565.9863785823</v>
+        <v>169380.1612624376</v>
       </c>
       <c r="AE3" t="n">
-        <v>164963.7015590279</v>
+        <v>231753.4091644926</v>
       </c>
       <c r="AF3" t="n">
         <v>1.61919642936835e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.895833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>149219.7974102892</v>
+        <v>209635.189061853</v>
       </c>
     </row>
     <row r="4">
@@ -8530,28 +8530,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>117.6041594072346</v>
+        <v>156.6223449253953</v>
       </c>
       <c r="AB4" t="n">
-        <v>160.9111992302481</v>
+        <v>214.2976020170262</v>
       </c>
       <c r="AC4" t="n">
-        <v>145.5540602160441</v>
+        <v>193.8453396491559</v>
       </c>
       <c r="AD4" t="n">
-        <v>117604.1594072346</v>
+        <v>156622.3449253953</v>
       </c>
       <c r="AE4" t="n">
-        <v>160911.1992302481</v>
+        <v>214297.6020170262</v>
       </c>
       <c r="AF4" t="n">
         <v>1.741772419122258e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.201388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>145554.0602160441</v>
+        <v>193845.3396491559</v>
       </c>
     </row>
     <row r="5">
@@ -8636,28 +8636,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>106.2219621907456</v>
+        <v>155.0019716558201</v>
       </c>
       <c r="AB5" t="n">
-        <v>145.3375748515541</v>
+        <v>212.0805358237711</v>
       </c>
       <c r="AC5" t="n">
-        <v>131.4667606903287</v>
+        <v>191.8398671417125</v>
       </c>
       <c r="AD5" t="n">
-        <v>106221.9621907456</v>
+        <v>155001.9716558201</v>
       </c>
       <c r="AE5" t="n">
-        <v>145337.5748515541</v>
+        <v>212080.5358237711</v>
       </c>
       <c r="AF5" t="n">
         <v>1.801316052726455e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.900462962962964</v>
       </c>
       <c r="AH5" t="n">
-        <v>131466.7606903287</v>
+        <v>191839.8671417125</v>
       </c>
     </row>
     <row r="6">
@@ -8742,28 +8742,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>105.0702522946912</v>
+        <v>153.8502617597657</v>
       </c>
       <c r="AB6" t="n">
-        <v>143.7617545619187</v>
+        <v>210.5047155341356</v>
       </c>
       <c r="AC6" t="n">
-        <v>130.0413344774579</v>
+        <v>190.4144409288417</v>
       </c>
       <c r="AD6" t="n">
-        <v>105070.2522946912</v>
+        <v>153850.2617597657</v>
       </c>
       <c r="AE6" t="n">
-        <v>143761.7545619187</v>
+        <v>210504.7155341356</v>
       </c>
       <c r="AF6" t="n">
         <v>1.847943106429997e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.668981481481483</v>
       </c>
       <c r="AH6" t="n">
-        <v>130041.3344774579</v>
+        <v>190414.4409288417</v>
       </c>
     </row>
     <row r="7">
@@ -8848,28 +8848,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>103.9837150884644</v>
+        <v>143.0692204143295</v>
       </c>
       <c r="AB7" t="n">
-        <v>142.2751064217215</v>
+        <v>195.7536191393411</v>
       </c>
       <c r="AC7" t="n">
-        <v>128.6965699492368</v>
+        <v>177.0711684706677</v>
       </c>
       <c r="AD7" t="n">
-        <v>103983.7150884644</v>
+        <v>143069.2204143295</v>
       </c>
       <c r="AE7" t="n">
-        <v>142275.1064217215</v>
+        <v>195753.6191393411</v>
       </c>
       <c r="AF7" t="n">
         <v>1.883840953892374e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.506944444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>128696.5699492368</v>
+        <v>177071.1684706677</v>
       </c>
     </row>
     <row r="8">
@@ -8954,28 +8954,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>104.0375126343585</v>
+        <v>143.1230179602235</v>
       </c>
       <c r="AB8" t="n">
-        <v>142.3487145973939</v>
+        <v>195.8272273150135</v>
       </c>
       <c r="AC8" t="n">
-        <v>128.7631530639328</v>
+        <v>177.1377515853637</v>
       </c>
       <c r="AD8" t="n">
-        <v>104037.5126343585</v>
+        <v>143123.0179602235</v>
       </c>
       <c r="AE8" t="n">
-        <v>142348.7145973939</v>
+        <v>195827.2273150135</v>
       </c>
       <c r="AF8" t="n">
         <v>1.882345787087154e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.506944444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>128763.1530639328</v>
+        <v>177137.7515853637</v>
       </c>
     </row>
   </sheetData>
@@ -9251,28 +9251,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.4354193856088</v>
+        <v>171.9668095239341</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.2580305065753</v>
+        <v>235.2925754307378</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.0088430337216</v>
+        <v>212.8365822668998</v>
       </c>
       <c r="AD2" t="n">
-        <v>124435.4193856088</v>
+        <v>171966.8095239341</v>
       </c>
       <c r="AE2" t="n">
-        <v>170258.0305065753</v>
+        <v>235292.5754307378</v>
       </c>
       <c r="AF2" t="n">
         <v>1.991264419868703e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.03472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>154008.8430337216</v>
+        <v>212836.5822668998</v>
       </c>
     </row>
     <row r="3">
@@ -9357,28 +9357,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.9404051071233</v>
+        <v>138.0535384827278</v>
       </c>
       <c r="AB3" t="n">
-        <v>136.7428713270062</v>
+        <v>188.8909418442572</v>
       </c>
       <c r="AC3" t="n">
-        <v>123.6923236074187</v>
+        <v>170.8634554647964</v>
       </c>
       <c r="AD3" t="n">
-        <v>99940.4051071233</v>
+        <v>138053.5384827278</v>
       </c>
       <c r="AE3" t="n">
-        <v>136742.8713270062</v>
+        <v>188890.9418442572</v>
       </c>
       <c r="AF3" t="n">
         <v>2.328241787957113e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.576388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>123692.3236074187</v>
+        <v>170863.4554647964</v>
       </c>
     </row>
     <row r="4">
@@ -9463,28 +9463,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>98.30651949376819</v>
+        <v>136.3181676428875</v>
       </c>
       <c r="AB4" t="n">
-        <v>134.5073169488689</v>
+        <v>186.5165309020306</v>
       </c>
       <c r="AC4" t="n">
-        <v>121.6701274015098</v>
+        <v>168.7156549703885</v>
       </c>
       <c r="AD4" t="n">
-        <v>98306.5194937682</v>
+        <v>136318.1676428875</v>
       </c>
       <c r="AE4" t="n">
-        <v>134507.3169488689</v>
+        <v>186516.5309020306</v>
       </c>
       <c r="AF4" t="n">
         <v>2.437110071588441e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.194444444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>121670.1274015098</v>
+        <v>168715.6549703885</v>
       </c>
     </row>
   </sheetData>
@@ -9760,28 +9760,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.5753807951304</v>
+        <v>146.1459598807935</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.5576260115729</v>
+        <v>199.9633498135204</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.3794946870065</v>
+        <v>180.8791283576989</v>
       </c>
       <c r="AD2" t="n">
-        <v>108575.3807951304</v>
+        <v>146145.9598807935</v>
       </c>
       <c r="AE2" t="n">
-        <v>148557.626011573</v>
+        <v>199963.3498135204</v>
       </c>
       <c r="AF2" t="n">
         <v>2.499835652950253e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.085648148148147</v>
       </c>
       <c r="AH2" t="n">
-        <v>134379.4946870065</v>
+        <v>180879.1283576989</v>
       </c>
     </row>
     <row r="3">
@@ -9866,28 +9866,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>96.02224125349015</v>
+        <v>133.5586549203725</v>
       </c>
       <c r="AB3" t="n">
-        <v>131.3818666852785</v>
+        <v>182.7408438539782</v>
       </c>
       <c r="AC3" t="n">
-        <v>118.8429657244784</v>
+        <v>165.300314194991</v>
       </c>
       <c r="AD3" t="n">
-        <v>96022.24125349015</v>
+        <v>133558.6549203725</v>
       </c>
       <c r="AE3" t="n">
-        <v>131381.8666852785</v>
+        <v>182740.8438539782</v>
       </c>
       <c r="AF3" t="n">
         <v>2.769847889565075e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.194444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>118842.9657244784</v>
+        <v>165300.314194991</v>
       </c>
     </row>
   </sheetData>
@@ -17304,28 +17304,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.01522332007353</v>
+        <v>132.1717731829778</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.0040203222828</v>
+        <v>180.8432510759718</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.5966190845471</v>
+        <v>163.5838250084287</v>
       </c>
       <c r="AD2" t="n">
-        <v>95015.22332007354</v>
+        <v>132171.7731829778</v>
       </c>
       <c r="AE2" t="n">
-        <v>130004.0203222828</v>
+        <v>180843.2510759718</v>
       </c>
       <c r="AF2" t="n">
         <v>3.004870160000587e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.483796296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>117596.6190845471</v>
+        <v>163583.8250084287</v>
       </c>
     </row>
     <row r="3">
@@ -17410,28 +17410,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.32026556184238</v>
+        <v>131.4768154247467</v>
       </c>
       <c r="AB3" t="n">
-        <v>129.0531484580989</v>
+        <v>179.8923792117879</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.7364970965236</v>
+        <v>162.7237030204052</v>
       </c>
       <c r="AD3" t="n">
-        <v>94320.26556184237</v>
+        <v>131476.8154247467</v>
       </c>
       <c r="AE3" t="n">
-        <v>129053.1484580989</v>
+        <v>179892.3792117879</v>
       </c>
       <c r="AF3" t="n">
         <v>3.092122757958989e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.252314814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>116736.4970965236</v>
+        <v>162723.7030204052</v>
       </c>
     </row>
   </sheetData>
@@ -17707,28 +17707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.1925348049061</v>
+        <v>136.7469466470694</v>
       </c>
       <c r="AB2" t="n">
-        <v>124.7736492507184</v>
+        <v>187.1032052519467</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.8654272871793</v>
+        <v>169.2463379437514</v>
       </c>
       <c r="AD2" t="n">
-        <v>91192.5348049061</v>
+        <v>136746.9466470694</v>
       </c>
       <c r="AE2" t="n">
-        <v>124773.6492507184</v>
+        <v>187103.2052519467</v>
       </c>
       <c r="AF2" t="n">
         <v>3.822206731210095e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.831018518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>112865.4272871793</v>
+        <v>169246.3379437514</v>
       </c>
     </row>
   </sheetData>
@@ -18004,28 +18004,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.6551837582116</v>
+        <v>188.3436294927332</v>
       </c>
       <c r="AB2" t="n">
-        <v>178.7681865178043</v>
+        <v>257.7000630063434</v>
       </c>
       <c r="AC2" t="n">
-        <v>161.7068016993207</v>
+        <v>233.1055306774032</v>
       </c>
       <c r="AD2" t="n">
-        <v>130655.1837582116</v>
+        <v>188343.6294927332</v>
       </c>
       <c r="AE2" t="n">
-        <v>178768.1865178043</v>
+        <v>257700.0630063434</v>
       </c>
       <c r="AF2" t="n">
         <v>1.657171645614725e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.9375</v>
       </c>
       <c r="AH2" t="n">
-        <v>161706.8016993207</v>
+        <v>233105.5306774031</v>
       </c>
     </row>
     <row r="3">
@@ -18110,28 +18110,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.5995902124065</v>
+        <v>152.0481765923511</v>
       </c>
       <c r="AB3" t="n">
-        <v>155.4319709887627</v>
+        <v>208.0390231056936</v>
       </c>
       <c r="AC3" t="n">
-        <v>140.5977618277792</v>
+        <v>188.1840707251483</v>
       </c>
       <c r="AD3" t="n">
-        <v>113599.5902124065</v>
+        <v>152048.1765923511</v>
       </c>
       <c r="AE3" t="n">
-        <v>155431.9709887627</v>
+        <v>208039.0231056936</v>
       </c>
       <c r="AF3" t="n">
         <v>2.008198460379537e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.027777777777777</v>
       </c>
       <c r="AH3" t="n">
-        <v>140597.7618277792</v>
+        <v>188184.0707251483</v>
       </c>
     </row>
     <row r="4">
@@ -18216,28 +18216,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>101.6159534503339</v>
+        <v>140.0303744114977</v>
       </c>
       <c r="AB4" t="n">
-        <v>139.0354304901617</v>
+        <v>191.5957359738448</v>
       </c>
       <c r="AC4" t="n">
-        <v>125.7660841416703</v>
+        <v>173.3101078388595</v>
       </c>
       <c r="AD4" t="n">
-        <v>101615.9534503339</v>
+        <v>140030.3744114977</v>
       </c>
       <c r="AE4" t="n">
-        <v>139035.4304901617</v>
+        <v>191595.7359738448</v>
       </c>
       <c r="AF4" t="n">
         <v>2.133532743529716e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.49537037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>125766.0841416703</v>
+        <v>173310.1078388595</v>
       </c>
     </row>
     <row r="5">
@@ -18322,28 +18322,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>100.4882858874782</v>
+        <v>138.902706848642</v>
       </c>
       <c r="AB5" t="n">
-        <v>137.4925059814816</v>
+        <v>190.0528114651647</v>
       </c>
       <c r="AC5" t="n">
-        <v>124.37041418259</v>
+        <v>171.9144378797791</v>
       </c>
       <c r="AD5" t="n">
-        <v>100488.2858874782</v>
+        <v>138902.706848642</v>
       </c>
       <c r="AE5" t="n">
-        <v>137492.5059814816</v>
+        <v>190052.8114651647</v>
       </c>
       <c r="AF5" t="n">
         <v>2.183453494989332e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.298611111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>124370.41418259</v>
+        <v>171914.4378797791</v>
       </c>
     </row>
   </sheetData>
@@ -18619,28 +18619,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>160.8222388423218</v>
+        <v>219.1728917923761</v>
       </c>
       <c r="AB2" t="n">
-        <v>220.0440821604049</v>
+        <v>299.882019775756</v>
       </c>
       <c r="AC2" t="n">
-        <v>199.043383792888</v>
+        <v>271.2617006955045</v>
       </c>
       <c r="AD2" t="n">
-        <v>160822.2388423218</v>
+        <v>219172.8917923761</v>
       </c>
       <c r="AE2" t="n">
-        <v>220044.0821604049</v>
+        <v>299882.019775756</v>
       </c>
       <c r="AF2" t="n">
         <v>1.310091105305633e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>199043.383792888</v>
+        <v>271261.7006955046</v>
       </c>
     </row>
     <row r="3">
@@ -18725,28 +18725,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>119.0263987676393</v>
+        <v>167.7080427324383</v>
       </c>
       <c r="AB3" t="n">
-        <v>162.8571698679251</v>
+        <v>229.4655428230855</v>
       </c>
       <c r="AC3" t="n">
-        <v>147.3143101472487</v>
+        <v>207.5656734730284</v>
       </c>
       <c r="AD3" t="n">
-        <v>119026.3987676393</v>
+        <v>167708.0427324383</v>
       </c>
       <c r="AE3" t="n">
-        <v>162857.1698679251</v>
+        <v>229465.5428230855</v>
       </c>
       <c r="AF3" t="n">
         <v>1.689987812146014e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.687499999999998</v>
       </c>
       <c r="AH3" t="n">
-        <v>147314.3101472487</v>
+        <v>207565.6734730284</v>
       </c>
     </row>
     <row r="4">
@@ -18831,28 +18831,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>116.2659890233632</v>
+        <v>155.1781498062787</v>
       </c>
       <c r="AB4" t="n">
-        <v>159.0802554751253</v>
+        <v>212.3215905416599</v>
       </c>
       <c r="AC4" t="n">
-        <v>143.8978591631639</v>
+        <v>192.0579159356485</v>
       </c>
       <c r="AD4" t="n">
-        <v>116265.9890233632</v>
+        <v>155178.1498062787</v>
       </c>
       <c r="AE4" t="n">
-        <v>159080.2554751253</v>
+        <v>212321.5905416599</v>
       </c>
       <c r="AF4" t="n">
         <v>1.813568498113607e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.027777777777777</v>
       </c>
       <c r="AH4" t="n">
-        <v>143897.8591631639</v>
+        <v>192057.9159356485</v>
       </c>
     </row>
     <row r="5">
@@ -18937,28 +18937,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>104.9693411998757</v>
+        <v>153.6168197458939</v>
       </c>
       <c r="AB5" t="n">
-        <v>143.6236835501089</v>
+        <v>210.1853098720216</v>
       </c>
       <c r="AC5" t="n">
-        <v>129.9164407692312</v>
+        <v>190.125518894831</v>
       </c>
       <c r="AD5" t="n">
-        <v>104969.3411998757</v>
+        <v>153616.8197458939</v>
       </c>
       <c r="AE5" t="n">
-        <v>143623.6835501089</v>
+        <v>210185.3098720216</v>
       </c>
       <c r="AF5" t="n">
         <v>1.87629270018532e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.726851851851853</v>
       </c>
       <c r="AH5" t="n">
-        <v>129916.4407692312</v>
+        <v>190125.518894831</v>
       </c>
     </row>
     <row r="6">
@@ -19043,28 +19043,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>103.8678199611111</v>
+        <v>142.8473005517311</v>
       </c>
       <c r="AB6" t="n">
-        <v>142.1165335955446</v>
+        <v>195.4499785929207</v>
       </c>
       <c r="AC6" t="n">
-        <v>128.5531310910318</v>
+        <v>176.7965069518355</v>
       </c>
       <c r="AD6" t="n">
-        <v>103867.8199611111</v>
+        <v>142847.3005517311</v>
       </c>
       <c r="AE6" t="n">
-        <v>142116.5335955446</v>
+        <v>195449.9785929207</v>
       </c>
       <c r="AF6" t="n">
         <v>1.909359801525629e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.576388888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>128553.1310910318</v>
+        <v>176796.5069518355</v>
       </c>
     </row>
     <row r="7">
@@ -19149,28 +19149,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>103.1105340643542</v>
+        <v>141.988529428489</v>
       </c>
       <c r="AB7" t="n">
-        <v>141.0803816225065</v>
+        <v>194.2749700557933</v>
       </c>
       <c r="AC7" t="n">
-        <v>127.6158680080517</v>
+        <v>175.7336395803564</v>
       </c>
       <c r="AD7" t="n">
-        <v>103110.5340643542</v>
+        <v>141988.529428489</v>
       </c>
       <c r="AE7" t="n">
-        <v>141080.3816225065</v>
+        <v>194274.9700557934</v>
       </c>
       <c r="AF7" t="n">
         <v>1.939002752876912e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.449074074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>127615.8680080517</v>
+        <v>175733.6395803564</v>
       </c>
     </row>
   </sheetData>
@@ -19446,28 +19446,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.09063863614294</v>
+        <v>144.2389854248281</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.5801833523606</v>
+        <v>197.3541432330945</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.6406009412301</v>
+        <v>178.5189407912635</v>
       </c>
       <c r="AD2" t="n">
-        <v>99090.63863614295</v>
+        <v>144238.9854248281</v>
       </c>
       <c r="AE2" t="n">
-        <v>135580.1833523606</v>
+        <v>197354.1432330945</v>
       </c>
       <c r="AF2" t="n">
         <v>4.124026851347512e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.62962962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>122640.6009412301</v>
+        <v>178518.9407912635</v>
       </c>
     </row>
   </sheetData>
@@ -19743,28 +19743,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.5545745374819</v>
+        <v>157.6686286135686</v>
       </c>
       <c r="AB2" t="n">
-        <v>151.2656462057224</v>
+        <v>215.7291735179629</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.8290652345573</v>
+        <v>195.1402839752669</v>
       </c>
       <c r="AD2" t="n">
-        <v>110554.5745374819</v>
+        <v>157668.6286135686</v>
       </c>
       <c r="AE2" t="n">
-        <v>151265.6462057224</v>
+        <v>215729.1735179629</v>
       </c>
       <c r="AF2" t="n">
         <v>2.310824372387227e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.375</v>
       </c>
       <c r="AH2" t="n">
-        <v>136829.0652345573</v>
+        <v>195140.2839752669</v>
       </c>
     </row>
     <row r="3">
@@ -19849,28 +19849,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>96.96343323393846</v>
+        <v>134.6685448682916</v>
       </c>
       <c r="AB3" t="n">
-        <v>132.6696470753869</v>
+        <v>184.2594442456092</v>
       </c>
       <c r="AC3" t="n">
-        <v>120.0078421615664</v>
+        <v>166.6739814966142</v>
       </c>
       <c r="AD3" t="n">
-        <v>96963.43323393846</v>
+        <v>134668.5448682916</v>
       </c>
       <c r="AE3" t="n">
-        <v>132669.6470753869</v>
+        <v>184259.4442456092</v>
       </c>
       <c r="AF3" t="n">
         <v>2.639570681563678e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.206018518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>120007.8421615664</v>
+        <v>166673.9814966142</v>
       </c>
     </row>
     <row r="4">
@@ -19955,28 +19955,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>96.82706287165379</v>
+        <v>134.532174506007</v>
       </c>
       <c r="AB4" t="n">
-        <v>132.4830591294733</v>
+        <v>184.0728562996956</v>
       </c>
       <c r="AC4" t="n">
-        <v>119.839061907333</v>
+        <v>166.5052012423807</v>
       </c>
       <c r="AD4" t="n">
-        <v>96827.06287165379</v>
+        <v>134532.174506007</v>
       </c>
       <c r="AE4" t="n">
-        <v>132483.0591294733</v>
+        <v>184072.8562996956</v>
       </c>
       <c r="AF4" t="n">
         <v>2.650574428919273e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.171296296296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>119839.061907333</v>
+        <v>166505.2012423807</v>
       </c>
     </row>
   </sheetData>
@@ -20252,28 +20252,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.4265293100022</v>
+        <v>174.1339492479081</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.9823549466993</v>
+        <v>238.2577516085346</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.4731617728945</v>
+        <v>215.5187661919396</v>
       </c>
       <c r="AD2" t="n">
-        <v>126426.5293100022</v>
+        <v>174133.9492479081</v>
       </c>
       <c r="AE2" t="n">
-        <v>172982.3549466993</v>
+        <v>238257.7516085346</v>
       </c>
       <c r="AF2" t="n">
         <v>1.868281601030412e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.32407407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>156473.1617728945</v>
+        <v>215518.7661919396</v>
       </c>
     </row>
     <row r="3">
@@ -20358,28 +20358,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>101.1401644697056</v>
+        <v>148.8807387965351</v>
       </c>
       <c r="AB3" t="n">
-        <v>138.384435016538</v>
+        <v>203.705194975967</v>
       </c>
       <c r="AC3" t="n">
-        <v>125.1772187623712</v>
+        <v>184.2638570695554</v>
       </c>
       <c r="AD3" t="n">
-        <v>101140.1644697056</v>
+        <v>148880.7387965351</v>
       </c>
       <c r="AE3" t="n">
-        <v>138384.435016538</v>
+        <v>203705.194975967</v>
       </c>
       <c r="AF3" t="n">
         <v>2.216882638272926e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.703703703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>125177.2187623712</v>
+        <v>184263.8570695554</v>
       </c>
     </row>
     <row r="4">
@@ -20464,28 +20464,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>99.33380232205138</v>
+        <v>137.4862743108352</v>
       </c>
       <c r="AB4" t="n">
-        <v>135.9128906350451</v>
+        <v>188.114785978345</v>
       </c>
       <c r="AC4" t="n">
-        <v>122.9415551078128</v>
+        <v>170.1613748253851</v>
       </c>
       <c r="AD4" t="n">
-        <v>99333.80232205139</v>
+        <v>137486.2743108352</v>
       </c>
       <c r="AE4" t="n">
-        <v>135912.8906350451</v>
+        <v>188114.785978345</v>
       </c>
       <c r="AF4" t="n">
         <v>2.329561424785062e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.275462962962964</v>
       </c>
       <c r="AH4" t="n">
-        <v>122941.5551078128</v>
+        <v>170161.3748253851</v>
       </c>
     </row>
     <row r="5">
@@ -20570,28 +20570,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>99.07173521306515</v>
+        <v>137.224207201849</v>
       </c>
       <c r="AB5" t="n">
-        <v>135.5543188549454</v>
+        <v>187.7562141982454</v>
       </c>
       <c r="AC5" t="n">
-        <v>122.6172049151471</v>
+        <v>169.8370246327194</v>
       </c>
       <c r="AD5" t="n">
-        <v>99071.73521306516</v>
+        <v>137224.207201849</v>
       </c>
       <c r="AE5" t="n">
-        <v>135554.3188549454</v>
+        <v>187756.2141982454</v>
       </c>
       <c r="AF5" t="n">
         <v>2.34825790488956e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.217592592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>122617.2049151471</v>
+        <v>169837.0246327194</v>
       </c>
     </row>
   </sheetData>
